--- a/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-9,95; 1,91</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 9,94</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 3,96</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; 5,61</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,27; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,97%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 3,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 1,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 5,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,02; 180,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,28; 65,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 317,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,75; 74,66</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,91%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 0,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 1,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 2,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,58; 26,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 165,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,28; 51,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,33; 167,32</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 2,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,74; 0,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 3,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 2,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,11; 106,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,28; 22,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,41; 278,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,91; 59,23</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,54%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 1,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 1,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 3,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,96; 123,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,72; 75,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,49; 90,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 209,82</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,26%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 1,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 1,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 39,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,52; 41,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,54; 68,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 65,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-53,62%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>144,26%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>-17,49%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 1,91</t>
+          <t>-1,91; 2,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,94</t>
+          <t>-1,99; 2,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,96</t>
+          <t>-0,04; 4,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 5,61</t>
+          <t>-4,51; 1,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,93; 107,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-45,3; 82,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 262,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-97,27; —</t>
+          <t>-62,82; 58,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>-29,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,56%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>102,82%</t>
+          <t>-9,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>74,43%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,37</t>
+          <t>-3,06; 0,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,62</t>
+          <t>-0,16; 3,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,22</t>
+          <t>-2,14; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,74</t>
+          <t>-0,22; 3,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 180,96</t>
+          <t>-60,58; 26,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,28; 65,87</t>
+          <t>-8,06; 165,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 317,81</t>
+          <t>-46,28; 51,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 74,66</t>
+          <t>-10,97; 277,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,04%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,15%</t>
+          <t>-40,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,91%</t>
+          <t>-17,58%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,72</t>
+          <t>-1,87; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,48</t>
+          <t>-3,74; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,34</t>
+          <t>-0,36; 3,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,85</t>
+          <t>-4,61; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 26,68</t>
+          <t>-45,11; 106,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 165,23</t>
+          <t>-71,28; 22,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 51,18</t>
+          <t>-17,41; 278,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 167,32</t>
+          <t>-61,12; 33,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,24%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>80,66%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>68,68%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,34</t>
+          <t>-0,95; 2,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,44</t>
+          <t>-1,52; 1,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,86</t>
+          <t>-1,33; 1,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 2,42</t>
+          <t>-0,12; 3,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 106,96</t>
+          <t>-26,96; 123,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,28; 22,55</t>
+          <t>-35,72; 75,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 278,99</t>
+          <t>-42,49; 90,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 59,23</t>
+          <t>-11,33; 197,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>20,61%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,73</t>
+          <t>-0,98; 1,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,95</t>
+          <t>-0,74; 1,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,75</t>
+          <t>-0,29; 1,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,25</t>
+          <t>-0,57; 1,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 123,69</t>
+          <t>-24,35; 39,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 75,26</t>
+          <t>-19,52; 41,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 90,91</t>
+          <t>-8,54; 68,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 209,82</t>
+          <t>-14,72; 70,5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>26,42%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 1,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 1,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 1,6</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 1,8</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-24,35; 39,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-19,52; 41,88</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 68,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; 65,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C07-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,53</t>
+          <t>-1,84; 2,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,08</t>
+          <t>-2,24; 1,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,55</t>
+          <t>-0,07; 4,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,53</t>
+          <t>-5,0; 1,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 107,15</t>
+          <t>-41,22; 112,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,3; 82,95</t>
+          <t>-47,66; 68,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 262,96</t>
+          <t>-5,9; 280,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-62,82; 58,63</t>
+          <t>-67,68; 55,52</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,72</t>
+          <t>-3,01; 0,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,48</t>
+          <t>-0,29; 3,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,34</t>
+          <t>-2,23; 1,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,35</t>
+          <t>-0,2; 3,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 26,68</t>
+          <t>-58,3; 28,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 165,23</t>
+          <t>-12,42; 176,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 51,18</t>
+          <t>-48,51; 55,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 277,94</t>
+          <t>-12,28; 309,6</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,34</t>
+          <t>-1,8; 2,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,44</t>
+          <t>-3,38; 0,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,86</t>
+          <t>-0,14; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,57</t>
+          <t>-4,97; 1,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,11; 106,96</t>
+          <t>-46,48; 103,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,28; 22,55</t>
+          <t>-70,49; 25,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 278,99</t>
+          <t>-10,73; 284,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 33,59</t>
+          <t>-65,27; 36,81</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,73</t>
+          <t>-1,18; 2,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,95</t>
+          <t>-1,65; 1,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,75</t>
+          <t>-1,27; 1,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,15</t>
+          <t>-0,07; 3,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 123,69</t>
+          <t>-29,31; 117,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 75,26</t>
+          <t>-36,84; 79,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,49; 90,91</t>
+          <t>-37,2; 120,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 197,05</t>
+          <t>-4,67; 189,79</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,15</t>
+          <t>-1,06; 1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 1,16</t>
+          <t>-0,74; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,6</t>
+          <t>-0,19; 1,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,78</t>
+          <t>-0,55; 1,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 39,46</t>
+          <t>-26,78; 33,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 41,88</t>
+          <t>-18,83; 43,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 68,69</t>
+          <t>-5,96; 67,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 70,5</t>
+          <t>-13,3; 70,99</t>
         </is>
       </c>
     </row>
